--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.178451</v>
+        <v>0.229373</v>
       </c>
       <c r="N2">
-        <v>0.3569020000000001</v>
+        <v>0.458746</v>
       </c>
       <c r="O2">
-        <v>0.00304918115392426</v>
+        <v>0.004196147854202993</v>
       </c>
       <c r="P2">
-        <v>0.002043403010828968</v>
+        <v>0.002819528175088529</v>
       </c>
       <c r="Q2">
-        <v>34.8120851895635</v>
+        <v>41.6299167314975</v>
       </c>
       <c r="R2">
-        <v>139.248340758254</v>
+        <v>166.51966692599</v>
       </c>
       <c r="S2">
-        <v>0.0008051684595647368</v>
+        <v>0.0009397216338097504</v>
       </c>
       <c r="T2">
-        <v>0.0004050650586920795</v>
+        <v>0.0004664483857914672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.44738666666667</v>
+        <v>21.15511466666667</v>
       </c>
       <c r="N3">
-        <v>61.34216</v>
+        <v>63.465344</v>
       </c>
       <c r="O3">
-        <v>0.3493832260452572</v>
+        <v>0.3870115009785441</v>
       </c>
       <c r="P3">
-        <v>0.3512077669353276</v>
+        <v>0.3900684159637048</v>
       </c>
       <c r="Q3">
-        <v>3988.860620248386</v>
+        <v>3839.535002021227</v>
       </c>
       <c r="R3">
-        <v>23933.16372149032</v>
+        <v>23037.21001212737</v>
       </c>
       <c r="S3">
-        <v>0.09225832763349343</v>
+        <v>0.08667070194832265</v>
       </c>
       <c r="T3">
-        <v>0.06962013561341469</v>
+        <v>0.06453093272202957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7336575</v>
+        <v>1.0557815</v>
       </c>
       <c r="N4">
-        <v>1.467315</v>
+        <v>2.111563</v>
       </c>
       <c r="O4">
-        <v>0.01253596013715355</v>
+        <v>0.01931445843988707</v>
       </c>
       <c r="P4">
-        <v>0.008400950089476961</v>
+        <v>0.01297801260822865</v>
       </c>
       <c r="Q4">
-        <v>143.1213464198137</v>
+        <v>191.6184377919613</v>
       </c>
       <c r="R4">
-        <v>572.4853856792549</v>
+        <v>766.4737511678451</v>
       </c>
       <c r="S4">
-        <v>0.003310252557414168</v>
+        <v>0.00432544683169383</v>
       </c>
       <c r="T4">
-        <v>0.001665325598048676</v>
+        <v>0.00214701632896415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H5">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I5">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J5">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2385586666666667</v>
+        <v>17.524316</v>
       </c>
       <c r="N5">
-        <v>0.715676</v>
+        <v>52.572948</v>
       </c>
       <c r="O5">
-        <v>0.004076237121144177</v>
+        <v>0.3205896987865842</v>
       </c>
       <c r="P5">
-        <v>0.00409752395105108</v>
+        <v>0.3231219632072304</v>
       </c>
       <c r="Q5">
-        <v>46.53784303090866</v>
+        <v>3180.56534926277</v>
       </c>
       <c r="R5">
-        <v>279.2270581854519</v>
+        <v>19083.39209557662</v>
       </c>
       <c r="S5">
-        <v>0.001076373425510742</v>
+        <v>0.07179562922801876</v>
       </c>
       <c r="T5">
-        <v>0.0008122547392407795</v>
+        <v>0.05345565243271602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H6">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I6">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J6">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.926183</v>
+        <v>14.69816933333333</v>
       </c>
       <c r="N6">
-        <v>110.778549</v>
+        <v>44.094508</v>
       </c>
       <c r="O6">
-        <v>0.6309553955425209</v>
+        <v>0.2688881939407817</v>
       </c>
       <c r="P6">
-        <v>0.6342503560133155</v>
+        <v>0.2710120800457477</v>
       </c>
       <c r="Q6">
-        <v>7203.531660351645</v>
+        <v>2667.635534488004</v>
       </c>
       <c r="R6">
-        <v>43221.18996210986</v>
+        <v>16005.81320692802</v>
       </c>
       <c r="S6">
-        <v>0.1666104302229496</v>
+        <v>0.06021714717919011</v>
       </c>
       <c r="T6">
-        <v>0.1257278453259113</v>
+        <v>0.04483485867750114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.178451</v>
+        <v>0.229373</v>
       </c>
       <c r="N7">
-        <v>0.3569020000000001</v>
+        <v>0.458746</v>
       </c>
       <c r="O7">
-        <v>0.00304918115392426</v>
+        <v>0.004196147854202993</v>
       </c>
       <c r="P7">
-        <v>0.002043403010828968</v>
+        <v>0.002819528175088529</v>
       </c>
       <c r="Q7">
-        <v>11.13675614830567</v>
+        <v>14.31469236936367</v>
       </c>
       <c r="R7">
-        <v>66.82053688983402</v>
+        <v>85.888154216182</v>
       </c>
       <c r="S7">
-        <v>0.0002575819501661923</v>
+        <v>0.0003231288255410956</v>
       </c>
       <c r="T7">
-        <v>0.0001943769279384572</v>
+        <v>0.0002405865423124615</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>187.223767</v>
       </c>
       <c r="I8">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J8">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.44738666666667</v>
+        <v>21.15511466666667</v>
       </c>
       <c r="N8">
-        <v>61.34216</v>
+        <v>63.465344</v>
       </c>
       <c r="O8">
-        <v>0.3493832260452572</v>
+        <v>0.3870115009785441</v>
       </c>
       <c r="P8">
-        <v>0.3512077669353276</v>
+        <v>0.3900684159637048</v>
       </c>
       <c r="Q8">
-        <v>1276.078919012969</v>
+        <v>1320.246753070094</v>
       </c>
       <c r="R8">
-        <v>11484.71027111672</v>
+        <v>11882.22077763085</v>
       </c>
       <c r="S8">
-        <v>0.02951441983178686</v>
+        <v>0.02980223198208684</v>
       </c>
       <c r="T8">
-        <v>0.03340833229824802</v>
+        <v>0.03328401265543662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>187.223767</v>
       </c>
       <c r="I9">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J9">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7336575</v>
+        <v>1.0557815</v>
       </c>
       <c r="N9">
-        <v>1.467315</v>
+        <v>2.111563</v>
       </c>
       <c r="O9">
-        <v>0.01253596013715355</v>
+        <v>0.01931445843988707</v>
       </c>
       <c r="P9">
-        <v>0.008400950089476961</v>
+        <v>0.01297801260822865</v>
       </c>
       <c r="Q9">
-        <v>45.7860402792675</v>
+        <v>65.88912985297017</v>
       </c>
       <c r="R9">
-        <v>274.716241675605</v>
+        <v>395.334779117821</v>
       </c>
       <c r="S9">
-        <v>0.001058984985256755</v>
+        <v>0.001487330401237357</v>
       </c>
       <c r="T9">
-        <v>0.0007991330449759802</v>
+        <v>0.001107396339248578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>187.223767</v>
       </c>
       <c r="I10">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J10">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2385586666666667</v>
+        <v>17.524316</v>
       </c>
       <c r="N10">
-        <v>0.715676</v>
+        <v>52.572948</v>
       </c>
       <c r="O10">
-        <v>0.004076237121144177</v>
+        <v>0.3205896987865842</v>
       </c>
       <c r="P10">
-        <v>0.00409752395105108</v>
+        <v>0.3231219632072304</v>
       </c>
       <c r="Q10">
-        <v>14.88795074127689</v>
+        <v>1093.656151872791</v>
       </c>
       <c r="R10">
-        <v>133.991556671492</v>
+        <v>9842.905366855115</v>
       </c>
       <c r="S10">
-        <v>0.0003443433020215443</v>
+        <v>0.02468735050546939</v>
       </c>
       <c r="T10">
-        <v>0.0003897733895559098</v>
+        <v>0.02757156199398542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>187.223767</v>
       </c>
       <c r="I11">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J11">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.926183</v>
+        <v>14.69816933333333</v>
       </c>
       <c r="N11">
-        <v>110.778549</v>
+        <v>44.094508</v>
       </c>
       <c r="O11">
-        <v>0.6309553955425209</v>
+        <v>0.2688881939407817</v>
       </c>
       <c r="P11">
-        <v>0.6342503560133155</v>
+        <v>0.2710120800457477</v>
       </c>
       <c r="Q11">
-        <v>2304.486360730454</v>
+        <v>917.2822101968486</v>
       </c>
       <c r="R11">
-        <v>20740.37724657408</v>
+        <v>8255.539891771637</v>
       </c>
       <c r="S11">
-        <v>0.05330044790633674</v>
+        <v>0.02070602117199561</v>
       </c>
       <c r="T11">
-        <v>0.06033251154686679</v>
+        <v>0.02312509583667034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H12">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I12">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J12">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.178451</v>
+        <v>0.229373</v>
       </c>
       <c r="N12">
-        <v>0.3569020000000001</v>
+        <v>0.458746</v>
       </c>
       <c r="O12">
-        <v>0.00304918115392426</v>
+        <v>0.004196147854202993</v>
       </c>
       <c r="P12">
-        <v>0.002043403010828968</v>
+        <v>0.002819528175088529</v>
       </c>
       <c r="Q12">
-        <v>25.49388662954467</v>
+        <v>39.45170451747833</v>
       </c>
       <c r="R12">
-        <v>152.963319777268</v>
+        <v>236.71022710487</v>
       </c>
       <c r="S12">
-        <v>0.0005896479143393106</v>
+        <v>0.0008905523512059794</v>
       </c>
       <c r="T12">
-        <v>0.0004449611088069046</v>
+        <v>0.0006630634409235969</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H13">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I13">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J13">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.44738666666667</v>
+        <v>21.15511466666667</v>
       </c>
       <c r="N13">
-        <v>61.34216</v>
+        <v>63.465344</v>
       </c>
       <c r="O13">
-        <v>0.3493832260452572</v>
+        <v>0.3870115009785441</v>
       </c>
       <c r="P13">
-        <v>0.3512077669353276</v>
+        <v>0.3900684159637048</v>
       </c>
       <c r="Q13">
-        <v>2921.156830449049</v>
+        <v>3638.638082349298</v>
       </c>
       <c r="R13">
-        <v>26290.41147404144</v>
+        <v>32747.74274114368</v>
       </c>
       <c r="S13">
-        <v>0.067563414616278</v>
+        <v>0.08213580982256891</v>
       </c>
       <c r="T13">
-        <v>0.07647722772696861</v>
+        <v>0.09173169765412616</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H14">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I14">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J14">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7336575</v>
+        <v>1.0557815</v>
       </c>
       <c r="N14">
-        <v>1.467315</v>
+        <v>2.111563</v>
       </c>
       <c r="O14">
-        <v>0.01253596013715355</v>
+        <v>0.01931445843988707</v>
       </c>
       <c r="P14">
-        <v>0.008400950089476961</v>
+        <v>0.01297801260822865</v>
       </c>
       <c r="Q14">
-        <v>104.811859445535</v>
+        <v>181.5923398700808</v>
       </c>
       <c r="R14">
-        <v>628.87115667321</v>
+        <v>1089.554039220485</v>
       </c>
       <c r="S14">
-        <v>0.002424192717969598</v>
+        <v>0.004099125429692142</v>
       </c>
       <c r="T14">
-        <v>0.001829348418806852</v>
+        <v>0.003052016210510725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H15">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I15">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J15">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2385586666666667</v>
+        <v>17.524316</v>
       </c>
       <c r="N15">
-        <v>0.715676</v>
+        <v>52.572948</v>
       </c>
       <c r="O15">
-        <v>0.004076237121144177</v>
+        <v>0.3205896987865842</v>
       </c>
       <c r="P15">
-        <v>0.00409752395105108</v>
+        <v>0.3231219632072304</v>
       </c>
       <c r="Q15">
-        <v>34.08099479686489</v>
+        <v>3014.147858304673</v>
       </c>
       <c r="R15">
-        <v>306.728953171784</v>
+        <v>27127.33072474206</v>
       </c>
       <c r="S15">
-        <v>0.000788259075306761</v>
+        <v>0.06803904913427719</v>
       </c>
       <c r="T15">
-        <v>0.0008922560997318319</v>
+        <v>0.07598801907891803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H16">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I16">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J16">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.926183</v>
+        <v>14.69816933333333</v>
       </c>
       <c r="N16">
-        <v>110.778549</v>
+        <v>44.094508</v>
       </c>
       <c r="O16">
-        <v>0.6309553955425209</v>
+        <v>0.2688881939407817</v>
       </c>
       <c r="P16">
-        <v>0.6342503560133155</v>
+        <v>0.2710120800457477</v>
       </c>
       <c r="Q16">
-        <v>5275.352466861041</v>
+        <v>2528.056194436695</v>
       </c>
       <c r="R16">
-        <v>47478.17220174936</v>
+        <v>22752.50574993026</v>
       </c>
       <c r="S16">
-        <v>0.1220135879903262</v>
+        <v>0.05706639080547242</v>
       </c>
       <c r="T16">
-        <v>0.1381111509463663</v>
+        <v>0.06373343026492453</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H17">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I17">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J17">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.178451</v>
+        <v>0.229373</v>
       </c>
       <c r="N17">
-        <v>0.3569020000000001</v>
+        <v>0.458746</v>
       </c>
       <c r="O17">
-        <v>0.00304918115392426</v>
+        <v>0.004196147854202993</v>
       </c>
       <c r="P17">
-        <v>0.002043403010828968</v>
+        <v>0.002819528175088529</v>
       </c>
       <c r="Q17">
-        <v>9.460957099639502</v>
+        <v>12.7629549322215</v>
       </c>
       <c r="R17">
-        <v>37.84382839855801</v>
+        <v>51.051819728886</v>
       </c>
       <c r="S17">
-        <v>0.0002188224064270801</v>
+        <v>0.0002881011013906962</v>
       </c>
       <c r="T17">
-        <v>0.0001100854235527847</v>
+        <v>0.0001430043630512401</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H18">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I18">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J18">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.44738666666667</v>
+        <v>21.15511466666667</v>
       </c>
       <c r="N18">
-        <v>61.34216</v>
+        <v>63.465344</v>
       </c>
       <c r="O18">
-        <v>0.3493832260452572</v>
+        <v>0.3870115009785441</v>
       </c>
       <c r="P18">
-        <v>0.3512077669353276</v>
+        <v>0.3900684159637048</v>
       </c>
       <c r="Q18">
-        <v>1084.06144013244</v>
+        <v>1177.129719176384</v>
       </c>
       <c r="R18">
-        <v>6504.368640794641</v>
+        <v>7062.778315058305</v>
       </c>
       <c r="S18">
-        <v>0.02507324899017092</v>
+        <v>0.02657161843596734</v>
       </c>
       <c r="T18">
-        <v>0.01892081766211085</v>
+        <v>0.0197839787040058</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H19">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I19">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J19">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7336575</v>
+        <v>1.0557815</v>
       </c>
       <c r="N19">
-        <v>1.467315</v>
+        <v>2.111563</v>
       </c>
       <c r="O19">
-        <v>0.01253596013715355</v>
+        <v>0.01931445843988707</v>
       </c>
       <c r="P19">
-        <v>0.008400950089476961</v>
+        <v>0.01297801260822865</v>
       </c>
       <c r="Q19">
-        <v>38.89640368128375</v>
+        <v>58.74663409718325</v>
       </c>
       <c r="R19">
-        <v>155.585614725135</v>
+        <v>234.986536388733</v>
       </c>
       <c r="S19">
-        <v>0.0008996346315978921</v>
+        <v>0.001326101210595498</v>
       </c>
       <c r="T19">
-        <v>0.0004525892072903885</v>
+        <v>0.000658235105826679</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H20">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I20">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J20">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2385586666666667</v>
+        <v>17.524316</v>
       </c>
       <c r="N20">
-        <v>0.715676</v>
+        <v>52.572948</v>
       </c>
       <c r="O20">
-        <v>0.004076237121144177</v>
+        <v>0.3205896987865842</v>
       </c>
       <c r="P20">
-        <v>0.00409752395105108</v>
+        <v>0.3231219632072304</v>
       </c>
       <c r="Q20">
-        <v>12.647692145634</v>
+        <v>975.101931465378</v>
       </c>
       <c r="R20">
-        <v>75.88615287380401</v>
+        <v>5850.611588792268</v>
       </c>
       <c r="S20">
-        <v>0.0002925283776164642</v>
+        <v>0.02201119896726554</v>
       </c>
       <c r="T20">
-        <v>0.0002207482602691011</v>
+        <v>0.0163885046244893</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H21">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I21">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J21">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>36.926183</v>
+        <v>14.69816933333333</v>
       </c>
       <c r="N21">
-        <v>110.778549</v>
+        <v>44.094508</v>
       </c>
       <c r="O21">
-        <v>0.6309553955425209</v>
+        <v>0.2688881939407817</v>
       </c>
       <c r="P21">
-        <v>0.6342503560133155</v>
+        <v>0.2710120800457477</v>
       </c>
       <c r="Q21">
-        <v>1957.719672158954</v>
+        <v>817.8472304390382</v>
       </c>
       <c r="R21">
-        <v>11746.31803295372</v>
+        <v>4907.083382634229</v>
       </c>
       <c r="S21">
-        <v>0.04528008374414676</v>
+        <v>0.01846145262677075</v>
       </c>
       <c r="T21">
-        <v>0.0341693335627929</v>
+        <v>0.01374553027295674</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H22">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I22">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J22">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.178451</v>
+        <v>0.229373</v>
       </c>
       <c r="N22">
-        <v>0.3569020000000001</v>
+        <v>0.458746</v>
       </c>
       <c r="O22">
-        <v>0.00304918115392426</v>
+        <v>0.004196147854202993</v>
       </c>
       <c r="P22">
-        <v>0.002043403010828968</v>
+        <v>0.002819528175088529</v>
       </c>
       <c r="Q22">
-        <v>25.658368961134</v>
+        <v>46.651329689241</v>
       </c>
       <c r="R22">
-        <v>153.950213766804</v>
+        <v>279.907978135446</v>
       </c>
       <c r="S22">
-        <v>0.0005934522249639181</v>
+        <v>0.001053071137223817</v>
       </c>
       <c r="T22">
-        <v>0.0004478319241402684</v>
+        <v>0.000784067293561552</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H23">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I23">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J23">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.44738666666667</v>
+        <v>21.15511466666667</v>
       </c>
       <c r="N23">
-        <v>61.34216</v>
+        <v>63.465344</v>
       </c>
       <c r="O23">
-        <v>0.3493832260452572</v>
+        <v>0.3870115009785441</v>
       </c>
       <c r="P23">
-        <v>0.3512077669353276</v>
+        <v>0.3900684159637048</v>
       </c>
       <c r="Q23">
-        <v>2940.003650213813</v>
+        <v>4302.660857766015</v>
       </c>
       <c r="R23">
-        <v>26460.03285192432</v>
+        <v>38723.94771989415</v>
       </c>
       <c r="S23">
-        <v>0.06799932257051451</v>
+        <v>0.0971249478366107</v>
       </c>
       <c r="T23">
-        <v>0.07697064612616406</v>
+        <v>0.108472009576177</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H24">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I24">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J24">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7336575</v>
+        <v>1.0557815</v>
       </c>
       <c r="N24">
-        <v>1.467315</v>
+        <v>2.111563</v>
       </c>
       <c r="O24">
-        <v>0.01253596013715355</v>
+        <v>0.01931445843988707</v>
       </c>
       <c r="P24">
-        <v>0.008400950089476961</v>
+        <v>0.01297801260822865</v>
       </c>
       <c r="Q24">
-        <v>105.488088192855</v>
+        <v>214.7315108417355</v>
       </c>
       <c r="R24">
-        <v>632.9285291571299</v>
+        <v>1288.389065050413</v>
       </c>
       <c r="S24">
-        <v>0.00243983320763944</v>
+        <v>0.004847183517087307</v>
       </c>
       <c r="T24">
-        <v>0.001841151071638371</v>
+        <v>0.0036089851172429</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H25">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I25">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J25">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2385586666666667</v>
+        <v>17.524316</v>
       </c>
       <c r="N25">
-        <v>0.715676</v>
+        <v>52.572948</v>
       </c>
       <c r="O25">
-        <v>0.004076237121144177</v>
+        <v>0.3205896987865842</v>
       </c>
       <c r="P25">
-        <v>0.00409752395105108</v>
+        <v>0.3231219632072304</v>
       </c>
       <c r="Q25">
-        <v>34.30087972726133</v>
+        <v>3564.206089184172</v>
       </c>
       <c r="R25">
-        <v>308.707917545352</v>
+        <v>32077.85480265754</v>
       </c>
       <c r="S25">
-        <v>0.0007933447922273285</v>
+        <v>0.08045563941348599</v>
       </c>
       <c r="T25">
-        <v>0.000898012788219205</v>
+        <v>0.08985523373045695</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H26">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I26">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J26">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.926183</v>
+        <v>14.69816933333333</v>
       </c>
       <c r="N26">
-        <v>110.778549</v>
+        <v>44.094508</v>
       </c>
       <c r="O26">
-        <v>0.6309553955425209</v>
+        <v>0.2688881939407817</v>
       </c>
       <c r="P26">
-        <v>0.6342503560133155</v>
+        <v>0.2710120800457477</v>
       </c>
       <c r="Q26">
-        <v>5309.388166725622</v>
+        <v>2989.406527349012</v>
       </c>
       <c r="R26">
-        <v>47784.4935005306</v>
+        <v>26904.65874614111</v>
       </c>
       <c r="S26">
-        <v>0.1228007994394809</v>
+        <v>0.06748055741068723</v>
       </c>
       <c r="T26">
-        <v>0.1390022212039635</v>
+        <v>0.07536427903129009</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H27">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I27">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J27">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.178451</v>
+        <v>0.229373</v>
       </c>
       <c r="N27">
-        <v>0.3569020000000001</v>
+        <v>0.458746</v>
       </c>
       <c r="O27">
-        <v>0.00304918115392426</v>
+        <v>0.004196147854202993</v>
       </c>
       <c r="P27">
-        <v>0.002043403010828968</v>
+        <v>0.002819528175088529</v>
       </c>
       <c r="Q27">
-        <v>25.27166701225834</v>
+        <v>31.07986067761833</v>
       </c>
       <c r="R27">
-        <v>151.63000207355</v>
+        <v>186.47916406571</v>
       </c>
       <c r="S27">
-        <v>0.0005845081984630222</v>
+        <v>0.0007015728050316545</v>
       </c>
       <c r="T27">
-        <v>0.0004410825676984735</v>
+        <v>0.0005223581494482109</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H28">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I28">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J28">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.44738666666667</v>
+        <v>21.15511466666667</v>
       </c>
       <c r="N28">
-        <v>61.34216</v>
+        <v>63.465344</v>
       </c>
       <c r="O28">
-        <v>0.3493832260452572</v>
+        <v>0.3870115009785441</v>
       </c>
       <c r="P28">
-        <v>0.3512077669353276</v>
+        <v>0.3900684159637048</v>
       </c>
       <c r="Q28">
-        <v>2895.694320070444</v>
+        <v>2866.501360051271</v>
       </c>
       <c r="R28">
-        <v>26061.248880634</v>
+        <v>25798.51224046144</v>
       </c>
       <c r="S28">
-        <v>0.06697449240301344</v>
+        <v>0.06470619095298762</v>
       </c>
       <c r="T28">
-        <v>0.07581060750842133</v>
+        <v>0.07226578465192965</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H29">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I29">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J29">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7336575</v>
+        <v>1.0557815</v>
       </c>
       <c r="N29">
-        <v>1.467315</v>
+        <v>2.111563</v>
       </c>
       <c r="O29">
-        <v>0.01253596013715355</v>
+        <v>0.01931445843988707</v>
       </c>
       <c r="P29">
-        <v>0.008400950089476961</v>
+        <v>0.01297801260822865</v>
       </c>
       <c r="Q29">
-        <v>103.8982580150625</v>
+        <v>143.0575609422508</v>
       </c>
       <c r="R29">
-        <v>623.389548090375</v>
+        <v>858.3453656535049</v>
       </c>
       <c r="S29">
-        <v>0.002403062037275693</v>
+        <v>0.003229271049580935</v>
       </c>
       <c r="T29">
-        <v>0.001813402748716694</v>
+        <v>0.002404363506435615</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H30">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I30">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J30">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.2385586666666667</v>
+        <v>17.524316</v>
       </c>
       <c r="N30">
-        <v>0.715676</v>
+        <v>52.572948</v>
       </c>
       <c r="O30">
-        <v>0.004076237121144177</v>
+        <v>0.3205896987865842</v>
       </c>
       <c r="P30">
-        <v>0.00409752395105108</v>
+        <v>0.3231219632072304</v>
       </c>
       <c r="Q30">
-        <v>33.78392492554444</v>
+        <v>2374.531002997553</v>
       </c>
       <c r="R30">
-        <v>304.0553243299</v>
+        <v>21370.77902697798</v>
       </c>
       <c r="S30">
-        <v>0.0007813881484613364</v>
+        <v>0.05360083153806727</v>
       </c>
       <c r="T30">
-        <v>0.0008844786740342522</v>
+        <v>0.05986299134666465</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H31">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I31">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J31">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>36.926183</v>
+        <v>14.69816933333333</v>
       </c>
       <c r="N31">
-        <v>110.778549</v>
+        <v>44.094508</v>
       </c>
       <c r="O31">
-        <v>0.6309553955425209</v>
+        <v>0.2688881939407817</v>
       </c>
       <c r="P31">
-        <v>0.6342503560133155</v>
+        <v>0.2710120800457477</v>
       </c>
       <c r="Q31">
-        <v>5229.369411265358</v>
+        <v>1991.590357609842</v>
       </c>
       <c r="R31">
-        <v>47064.32470138823</v>
+        <v>17924.31321848858</v>
       </c>
       <c r="S31">
-        <v>0.1209500462392807</v>
+        <v>0.04495662474666553</v>
       </c>
       <c r="T31">
-        <v>0.1369072934274147</v>
+        <v>0.05020888596240476</v>
       </c>
     </row>
   </sheetData>
